--- a/natmiOut/OldD4/LR-pairs_lrc2p/F2-Gp9.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/F2-Gp9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Gp9</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.57991967623364</v>
+        <v>0.9442576666666667</v>
       </c>
       <c r="H2">
-        <v>0.57991967623364</v>
+        <v>2.832773</v>
       </c>
       <c r="I2">
-        <v>0.3552878116109889</v>
+        <v>0.4123198466914758</v>
       </c>
       <c r="J2">
-        <v>0.3552878116109889</v>
+        <v>0.4405367670065795</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.47395274214354</v>
+        <v>0.223816</v>
       </c>
       <c r="N2">
-        <v>2.47395274214354</v>
+        <v>0.671448</v>
       </c>
       <c r="O2">
-        <v>0.3311829926623838</v>
+        <v>0.02444349385118431</v>
       </c>
       <c r="P2">
-        <v>0.3311829926623838</v>
+        <v>0.02492041180987197</v>
       </c>
       <c r="Q2">
-        <v>1.434693873241208</v>
+        <v>0.2113399739226667</v>
       </c>
       <c r="R2">
-        <v>1.434693873241208</v>
+        <v>1.902059765304</v>
       </c>
       <c r="S2">
-        <v>0.1176652807057966</v>
+        <v>0.01007853763732435</v>
       </c>
       <c r="T2">
-        <v>0.1176652807057966</v>
+        <v>0.01097835765119358</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.57991967623364</v>
+        <v>0.9442576666666667</v>
       </c>
       <c r="H3">
-        <v>0.57991967623364</v>
+        <v>2.832773</v>
       </c>
       <c r="I3">
-        <v>0.3552878116109889</v>
+        <v>0.4123198466914758</v>
       </c>
       <c r="J3">
-        <v>0.3552878116109889</v>
+        <v>0.4405367670065795</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.69982616839965</v>
+        <v>3.28012</v>
       </c>
       <c r="N3">
-        <v>4.69982616839965</v>
+        <v>9.84036</v>
       </c>
       <c r="O3">
-        <v>0.6291561147990884</v>
+        <v>0.3582299435748413</v>
       </c>
       <c r="P3">
-        <v>0.6291561147990884</v>
+        <v>0.3652193819288935</v>
       </c>
       <c r="Q3">
-        <v>2.725521669932714</v>
+        <v>3.097278457586667</v>
       </c>
       <c r="R3">
-        <v>2.725521669932714</v>
+        <v>27.87550611828</v>
       </c>
       <c r="S3">
-        <v>0.2235314991886402</v>
+        <v>0.1477053154150746</v>
       </c>
       <c r="T3">
-        <v>0.2235314991886402</v>
+        <v>0.1608925657630959</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.57991967623364</v>
+        <v>0.9442576666666667</v>
       </c>
       <c r="H4">
-        <v>0.57991967623364</v>
+        <v>2.832773</v>
       </c>
       <c r="I4">
-        <v>0.3552878116109889</v>
+        <v>0.4123198466914758</v>
       </c>
       <c r="J4">
-        <v>0.3552878116109889</v>
+        <v>0.4405367670065795</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.296268757833154</v>
+        <v>5.126829666666667</v>
       </c>
       <c r="N4">
-        <v>0.296268757833154</v>
+        <v>15.380489</v>
       </c>
       <c r="O4">
-        <v>0.03966089253852775</v>
+        <v>0.5599136318817063</v>
       </c>
       <c r="P4">
-        <v>0.03966089253852775</v>
+        <v>0.5708381285180771</v>
       </c>
       <c r="Q4">
-        <v>0.1718120821207454</v>
+        <v>4.841048218444111</v>
       </c>
       <c r="R4">
-        <v>0.1718120821207454</v>
+        <v>43.569433965997</v>
       </c>
       <c r="S4">
-        <v>0.01409103171655213</v>
+        <v>0.2308635028579326</v>
       </c>
       <c r="T4">
-        <v>0.01409103171655213</v>
+        <v>0.2514751836214401</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.660669065824854</v>
+        <v>0.9442576666666667</v>
       </c>
       <c r="H5">
-        <v>0.660669065824854</v>
+        <v>2.832773</v>
       </c>
       <c r="I5">
-        <v>0.4047589282027066</v>
+        <v>0.4123198466914758</v>
       </c>
       <c r="J5">
-        <v>0.4047589282027066</v>
+        <v>0.4405367670065795</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.47395274214354</v>
+        <v>0.5256995</v>
       </c>
       <c r="N5">
-        <v>2.47395274214354</v>
+        <v>1.051399</v>
       </c>
       <c r="O5">
-        <v>0.3311829926623838</v>
+        <v>0.05741293069226805</v>
       </c>
       <c r="P5">
-        <v>0.3311829926623838</v>
+        <v>0.03902207774315743</v>
       </c>
       <c r="Q5">
-        <v>1.634464047046808</v>
+        <v>0.4963957832378333</v>
       </c>
       <c r="R5">
-        <v>1.634464047046808</v>
+        <v>2.978374699427</v>
       </c>
       <c r="S5">
-        <v>0.1340492731489913</v>
+        <v>0.02367249078114429</v>
       </c>
       <c r="T5">
-        <v>0.1340492731489913</v>
+        <v>0.01719065997084998</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.660669065824854</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H6">
-        <v>0.660669065824854</v>
+        <v>2.048396</v>
       </c>
       <c r="I6">
-        <v>0.4047589282027066</v>
+        <v>0.2981510783544719</v>
       </c>
       <c r="J6">
-        <v>0.4047589282027066</v>
+        <v>0.3185549111733306</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>4.69982616839965</v>
+        <v>0.223816</v>
       </c>
       <c r="N6">
-        <v>4.69982616839965</v>
+        <v>0.671448</v>
       </c>
       <c r="O6">
-        <v>0.6291561147990884</v>
+        <v>0.02444349385118431</v>
       </c>
       <c r="P6">
-        <v>0.6291561147990884</v>
+        <v>0.02492041180987197</v>
       </c>
       <c r="Q6">
-        <v>3.105029764215799</v>
+        <v>0.1528212663786667</v>
       </c>
       <c r="R6">
-        <v>3.105029764215799</v>
+        <v>1.375391397408</v>
       </c>
       <c r="S6">
-        <v>0.254656554698258</v>
+        <v>0.007287854050481504</v>
       </c>
       <c r="T6">
-        <v>0.254656554698258</v>
+        <v>0.007938519570496584</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.660669065824854</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H7">
-        <v>0.660669065824854</v>
+        <v>2.048396</v>
       </c>
       <c r="I7">
-        <v>0.4047589282027066</v>
+        <v>0.2981510783544719</v>
       </c>
       <c r="J7">
-        <v>0.4047589282027066</v>
+        <v>0.3185549111733306</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.296268757833154</v>
+        <v>3.28012</v>
       </c>
       <c r="N7">
-        <v>0.296268757833154</v>
+        <v>9.84036</v>
       </c>
       <c r="O7">
-        <v>0.03966089253852775</v>
+        <v>0.3582299435748413</v>
       </c>
       <c r="P7">
-        <v>0.03966089253852775</v>
+        <v>0.3652193819288935</v>
       </c>
       <c r="Q7">
-        <v>0.1957356034707197</v>
+        <v>2.239661562506667</v>
       </c>
       <c r="R7">
-        <v>0.1957356034707197</v>
+        <v>20.15695406256</v>
       </c>
       <c r="S7">
-        <v>0.01605310035545722</v>
+        <v>0.1068066439757006</v>
       </c>
       <c r="T7">
-        <v>0.01605310035545722</v>
+        <v>0.1163424277691374</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.39166448274001</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H8">
-        <v>0.39166448274001</v>
+        <v>2.048396</v>
       </c>
       <c r="I8">
-        <v>0.2399532601863045</v>
+        <v>0.2981510783544719</v>
       </c>
       <c r="J8">
-        <v>0.2399532601863045</v>
+        <v>0.3185549111733306</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.47395274214354</v>
+        <v>5.126829666666667</v>
       </c>
       <c r="N8">
-        <v>2.47395274214354</v>
+        <v>15.380489</v>
       </c>
       <c r="O8">
-        <v>0.3311829926623838</v>
+        <v>0.5599136318817063</v>
       </c>
       <c r="P8">
-        <v>0.3311829926623838</v>
+        <v>0.5708381285180771</v>
       </c>
       <c r="Q8">
-        <v>0.9689594210748789</v>
+        <v>3.500592460627111</v>
       </c>
       <c r="R8">
-        <v>0.9689594210748789</v>
+        <v>31.505332145644</v>
       </c>
       <c r="S8">
-        <v>0.07946843880759596</v>
+        <v>0.1669388531308995</v>
       </c>
       <c r="T8">
-        <v>0.07946843880759596</v>
+        <v>0.1818432893244264</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.39166448274001</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H9">
-        <v>0.39166448274001</v>
+        <v>2.048396</v>
       </c>
       <c r="I9">
-        <v>0.2399532601863045</v>
+        <v>0.2981510783544719</v>
       </c>
       <c r="J9">
-        <v>0.2399532601863045</v>
+        <v>0.3185549111733306</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.69982616839965</v>
+        <v>0.5256995</v>
       </c>
       <c r="N9">
-        <v>4.69982616839965</v>
+        <v>1.051399</v>
       </c>
       <c r="O9">
-        <v>0.6291561147990884</v>
+        <v>0.05741293069226805</v>
       </c>
       <c r="P9">
-        <v>0.6291561147990884</v>
+        <v>0.03902207774315743</v>
       </c>
       <c r="Q9">
-        <v>1.840754985214212</v>
+        <v>0.3589469176673333</v>
       </c>
       <c r="R9">
-        <v>1.840754985214212</v>
+        <v>2.153681506004</v>
       </c>
       <c r="S9">
-        <v>0.1509680609121901</v>
+        <v>0.01711772719739027</v>
       </c>
       <c r="T9">
-        <v>0.1509680609121901</v>
+        <v>0.01243067450927032</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.073199</v>
+      </c>
+      <c r="H10">
+        <v>0.219597</v>
+      </c>
+      <c r="I10">
+        <v>0.03196309812819736</v>
+      </c>
+      <c r="J10">
+        <v>0.03415047814432848</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.223816</v>
+      </c>
+      <c r="N10">
+        <v>0.671448</v>
+      </c>
+      <c r="O10">
+        <v>0.02444349385118431</v>
+      </c>
+      <c r="P10">
+        <v>0.02492041180987197</v>
+      </c>
+      <c r="Q10">
+        <v>0.016383107384</v>
+      </c>
+      <c r="R10">
+        <v>0.147447966456</v>
+      </c>
+      <c r="S10">
+        <v>0.0007812897925613928</v>
+      </c>
+      <c r="T10">
+        <v>0.0008510439788606981</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.073199</v>
+      </c>
+      <c r="H11">
+        <v>0.219597</v>
+      </c>
+      <c r="I11">
+        <v>0.03196309812819736</v>
+      </c>
+      <c r="J11">
+        <v>0.03415047814432848</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.28012</v>
+      </c>
+      <c r="N11">
+        <v>9.84036</v>
+      </c>
+      <c r="O11">
+        <v>0.3582299435748413</v>
+      </c>
+      <c r="P11">
+        <v>0.3652193819288935</v>
+      </c>
+      <c r="Q11">
+        <v>0.24010150388</v>
+      </c>
+      <c r="R11">
+        <v>2.16091353492</v>
+      </c>
+      <c r="S11">
+        <v>0.01145013883894126</v>
+      </c>
+      <c r="T11">
+        <v>0.01247241652044784</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.073199</v>
+      </c>
+      <c r="H12">
+        <v>0.219597</v>
+      </c>
+      <c r="I12">
+        <v>0.03196309812819736</v>
+      </c>
+      <c r="J12">
+        <v>0.03415047814432848</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>5.126829666666667</v>
+      </c>
+      <c r="N12">
+        <v>15.380489</v>
+      </c>
+      <c r="O12">
+        <v>0.5599136318817063</v>
+      </c>
+      <c r="P12">
+        <v>0.5708381285180771</v>
+      </c>
+      <c r="Q12">
+        <v>0.3752788047703333</v>
+      </c>
+      <c r="R12">
+        <v>3.377509242933</v>
+      </c>
+      <c r="S12">
+        <v>0.01789657435915035</v>
+      </c>
+      <c r="T12">
+        <v>0.01949439503190597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.073199</v>
+      </c>
+      <c r="H13">
+        <v>0.219597</v>
+      </c>
+      <c r="I13">
+        <v>0.03196309812819736</v>
+      </c>
+      <c r="J13">
+        <v>0.03415047814432848</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5256995</v>
+      </c>
+      <c r="N13">
+        <v>1.051399</v>
+      </c>
+      <c r="O13">
+        <v>0.05741293069226805</v>
+      </c>
+      <c r="P13">
+        <v>0.03902207774315743</v>
+      </c>
+      <c r="Q13">
+        <v>0.0384806777005</v>
+      </c>
+      <c r="R13">
+        <v>0.230884066203</v>
+      </c>
+      <c r="S13">
+        <v>0.001835095137544358</v>
+      </c>
+      <c r="T13">
+        <v>0.001332622613113985</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1498013333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.449404</v>
+      </c>
+      <c r="I14">
+        <v>0.06541229684924842</v>
+      </c>
+      <c r="J14">
+        <v>0.0698887574965678</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.223816</v>
+      </c>
+      <c r="N14">
+        <v>0.671448</v>
+      </c>
+      <c r="O14">
+        <v>0.02444349385118431</v>
+      </c>
+      <c r="P14">
+        <v>0.02492041180987197</v>
+      </c>
+      <c r="Q14">
+        <v>0.03352793522133334</v>
+      </c>
+      <c r="R14">
+        <v>0.301751416992</v>
+      </c>
+      <c r="S14">
+        <v>0.001598905075826447</v>
+      </c>
+      <c r="T14">
+        <v>0.001741656617694746</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.39166448274001</v>
-      </c>
-      <c r="H10">
-        <v>0.39166448274001</v>
-      </c>
-      <c r="I10">
-        <v>0.2399532601863045</v>
-      </c>
-      <c r="J10">
-        <v>0.2399532601863045</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.296268757833154</v>
-      </c>
-      <c r="N10">
-        <v>0.296268757833154</v>
-      </c>
-      <c r="O10">
-        <v>0.03966089253852775</v>
-      </c>
-      <c r="P10">
-        <v>0.03966089253852775</v>
-      </c>
-      <c r="Q10">
-        <v>0.1160379497887475</v>
-      </c>
-      <c r="R10">
-        <v>0.1160379497887475</v>
-      </c>
-      <c r="S10">
-        <v>0.009516760466518413</v>
-      </c>
-      <c r="T10">
-        <v>0.009516760466518413</v>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1498013333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.449404</v>
+      </c>
+      <c r="I15">
+        <v>0.06541229684924842</v>
+      </c>
+      <c r="J15">
+        <v>0.0698887574965678</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.28012</v>
+      </c>
+      <c r="N15">
+        <v>9.84036</v>
+      </c>
+      <c r="O15">
+        <v>0.3582299435748413</v>
+      </c>
+      <c r="P15">
+        <v>0.3652193819288935</v>
+      </c>
+      <c r="Q15">
+        <v>0.4913663494933334</v>
+      </c>
+      <c r="R15">
+        <v>4.422297145440001</v>
+      </c>
+      <c r="S15">
+        <v>0.02343264340940703</v>
+      </c>
+      <c r="T15">
+        <v>0.02552472881667481</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1498013333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.449404</v>
+      </c>
+      <c r="I16">
+        <v>0.06541229684924842</v>
+      </c>
+      <c r="J16">
+        <v>0.0698887574965678</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.126829666666667</v>
+      </c>
+      <c r="N16">
+        <v>15.380489</v>
+      </c>
+      <c r="O16">
+        <v>0.5599136318817063</v>
+      </c>
+      <c r="P16">
+        <v>0.5708381285180771</v>
+      </c>
+      <c r="Q16">
+        <v>0.7680059198395556</v>
+      </c>
+      <c r="R16">
+        <v>6.912053278556001</v>
+      </c>
+      <c r="S16">
+        <v>0.03662523669858697</v>
+      </c>
+      <c r="T16">
+        <v>0.0398951675337945</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1498013333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.449404</v>
+      </c>
+      <c r="I17">
+        <v>0.06541229684924842</v>
+      </c>
+      <c r="J17">
+        <v>0.0698887574965678</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.5256995</v>
+      </c>
+      <c r="N17">
+        <v>1.051399</v>
+      </c>
+      <c r="O17">
+        <v>0.05741293069226805</v>
+      </c>
+      <c r="P17">
+        <v>0.03902207774315743</v>
+      </c>
+      <c r="Q17">
+        <v>0.07875048603266667</v>
+      </c>
+      <c r="R17">
+        <v>0.472502916196</v>
+      </c>
+      <c r="S17">
+        <v>0.003755511665427963</v>
+      </c>
+      <c r="T17">
+        <v>0.002727204528403746</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.440053</v>
+      </c>
+      <c r="H18">
+        <v>0.8801059999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.1921536799766067</v>
+      </c>
+      <c r="J18">
+        <v>0.1368690861791935</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.223816</v>
+      </c>
+      <c r="N18">
+        <v>0.671448</v>
+      </c>
+      <c r="O18">
+        <v>0.02444349385118431</v>
+      </c>
+      <c r="P18">
+        <v>0.02492041180987197</v>
+      </c>
+      <c r="Q18">
+        <v>0.098490902248</v>
+      </c>
+      <c r="R18">
+        <v>0.590945413488</v>
+      </c>
+      <c r="S18">
+        <v>0.004696907294990622</v>
+      </c>
+      <c r="T18">
+        <v>0.003410833991626359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.440053</v>
+      </c>
+      <c r="H19">
+        <v>0.8801059999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.1921536799766067</v>
+      </c>
+      <c r="J19">
+        <v>0.1368690861791935</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.28012</v>
+      </c>
+      <c r="N19">
+        <v>9.84036</v>
+      </c>
+      <c r="O19">
+        <v>0.3582299435748413</v>
+      </c>
+      <c r="P19">
+        <v>0.3652193819288935</v>
+      </c>
+      <c r="Q19">
+        <v>1.44342664636</v>
+      </c>
+      <c r="R19">
+        <v>8.660559878159999</v>
+      </c>
+      <c r="S19">
+        <v>0.06883520193571792</v>
+      </c>
+      <c r="T19">
+        <v>0.04998724305953753</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.440053</v>
+      </c>
+      <c r="H20">
+        <v>0.8801059999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.1921536799766067</v>
+      </c>
+      <c r="J20">
+        <v>0.1368690861791935</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.126829666666667</v>
+      </c>
+      <c r="N20">
+        <v>15.380489</v>
+      </c>
+      <c r="O20">
+        <v>0.5599136318817063</v>
+      </c>
+      <c r="P20">
+        <v>0.5708381285180771</v>
+      </c>
+      <c r="Q20">
+        <v>2.256076775305667</v>
+      </c>
+      <c r="R20">
+        <v>13.536460651834</v>
+      </c>
+      <c r="S20">
+        <v>0.1075894648351369</v>
+      </c>
+      <c r="T20">
+        <v>0.07813009300651026</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.440053</v>
+      </c>
+      <c r="H21">
+        <v>0.8801059999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.1921536799766067</v>
+      </c>
+      <c r="J21">
+        <v>0.1368690861791935</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.5256995</v>
+      </c>
+      <c r="N21">
+        <v>1.051399</v>
+      </c>
+      <c r="O21">
+        <v>0.05741293069226805</v>
+      </c>
+      <c r="P21">
+        <v>0.03902207774315743</v>
+      </c>
+      <c r="Q21">
+        <v>0.2313356420735</v>
+      </c>
+      <c r="R21">
+        <v>0.925342568294</v>
+      </c>
+      <c r="S21">
+        <v>0.01103210591076117</v>
+      </c>
+      <c r="T21">
+        <v>0.005340916121519405</v>
       </c>
     </row>
   </sheetData>
